--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.958141333333334</v>
+        <v>0.2162966666666667</v>
       </c>
       <c r="H2">
-        <v>5.874424</v>
+        <v>0.6488900000000001</v>
       </c>
       <c r="I2">
-        <v>0.1445807708852573</v>
+        <v>0.02888548604596741</v>
       </c>
       <c r="J2">
-        <v>0.1445807708852573</v>
+        <v>0.0288854860459674</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.300909333333333</v>
+        <v>0.303146</v>
       </c>
       <c r="N2">
-        <v>6.902728</v>
+        <v>0.909438</v>
       </c>
       <c r="O2">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700541</v>
       </c>
       <c r="P2">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700542</v>
       </c>
       <c r="Q2">
-        <v>4.505505669852445</v>
+        <v>0.06556946931333334</v>
       </c>
       <c r="R2">
-        <v>40.549551028672</v>
+        <v>0.5901252238200001</v>
       </c>
       <c r="S2">
-        <v>0.005460786284726425</v>
+        <v>0.0001485538725117777</v>
       </c>
       <c r="T2">
-        <v>0.005460786284726423</v>
+        <v>0.0001485538725117777</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.958141333333334</v>
+        <v>0.2162966666666667</v>
       </c>
       <c r="H3">
-        <v>5.874424</v>
+        <v>0.6488900000000001</v>
       </c>
       <c r="I3">
-        <v>0.1445807708852573</v>
+        <v>0.02888548604596741</v>
       </c>
       <c r="J3">
-        <v>0.1445807708852573</v>
+        <v>0.0288854860459674</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>50.889365</v>
       </c>
       <c r="O3">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="P3">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="Q3">
-        <v>33.21618967786222</v>
+        <v>3.669066672761111</v>
       </c>
       <c r="R3">
-        <v>298.94570710076</v>
+        <v>33.02160005485</v>
       </c>
       <c r="S3">
-        <v>0.04025885800953433</v>
+        <v>0.008312619706253008</v>
       </c>
       <c r="T3">
-        <v>0.04025885800953433</v>
+        <v>0.008312619706253006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.958141333333334</v>
+        <v>0.2162966666666667</v>
       </c>
       <c r="H4">
-        <v>5.874424</v>
+        <v>0.6488900000000001</v>
       </c>
       <c r="I4">
-        <v>0.1445807708852573</v>
+        <v>0.02888548604596741</v>
       </c>
       <c r="J4">
-        <v>0.1445807708852573</v>
+        <v>0.0288854860459674</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.655263</v>
+        <v>41.67881</v>
       </c>
       <c r="N4">
-        <v>124.965789</v>
+        <v>125.03643</v>
       </c>
       <c r="O4">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="P4">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="Q4">
-        <v>81.56689223117067</v>
+        <v>9.014987673633334</v>
       </c>
       <c r="R4">
-        <v>734.102030080536</v>
+        <v>81.13488906270001</v>
       </c>
       <c r="S4">
-        <v>0.09886112659099652</v>
+        <v>0.02042431246720262</v>
       </c>
       <c r="T4">
-        <v>0.09886112659099652</v>
+        <v>0.02042431246720262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>17.499009</v>
       </c>
       <c r="I5">
-        <v>0.4306839633891008</v>
+        <v>0.7789723686414617</v>
       </c>
       <c r="J5">
-        <v>0.4306839633891009</v>
+        <v>0.7789723686414615</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.300909333333333</v>
+        <v>0.303146</v>
       </c>
       <c r="N5">
-        <v>6.902728</v>
+        <v>0.909438</v>
       </c>
       <c r="O5">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700541</v>
       </c>
       <c r="P5">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700542</v>
       </c>
       <c r="Q5">
-        <v>13.42121104406133</v>
+        <v>1.768251527438</v>
       </c>
       <c r="R5">
-        <v>120.790899396552</v>
+        <v>15.914263746942</v>
       </c>
       <c r="S5">
-        <v>0.01626684562495051</v>
+        <v>0.004006142107396401</v>
       </c>
       <c r="T5">
-        <v>0.01626684562495051</v>
+        <v>0.004006142107396401</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>17.499009</v>
       </c>
       <c r="I6">
-        <v>0.4306839633891008</v>
+        <v>0.7789723686414617</v>
       </c>
       <c r="J6">
-        <v>0.4306839633891009</v>
+        <v>0.7789723686414615</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>50.889365</v>
       </c>
       <c r="O6">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="P6">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="Q6">
         <v>98.94593957103167</v>
@@ -818,10 +818,10 @@
         <v>890.513456139285</v>
       </c>
       <c r="S6">
-        <v>0.1199249694333544</v>
+        <v>0.2241714420830938</v>
       </c>
       <c r="T6">
-        <v>0.1199249694333544</v>
+        <v>0.2241714420830938</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>17.499009</v>
       </c>
       <c r="I7">
-        <v>0.4306839633891008</v>
+        <v>0.7789723686414617</v>
       </c>
       <c r="J7">
-        <v>0.4306839633891009</v>
+        <v>0.7789723686414615</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.655263</v>
+        <v>41.67881</v>
       </c>
       <c r="N7">
-        <v>124.965789</v>
+        <v>125.03643</v>
       </c>
       <c r="O7">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="P7">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="Q7">
-        <v>242.975274044789</v>
+        <v>243.11262376643</v>
       </c>
       <c r="R7">
-        <v>2186.777466403101</v>
+        <v>2188.01361389787</v>
       </c>
       <c r="S7">
-        <v>0.2944921483307959</v>
+        <v>0.5507947844509715</v>
       </c>
       <c r="T7">
-        <v>0.294492148330796</v>
+        <v>0.5507947844509714</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.752436333333333</v>
+        <v>1.438774666666667</v>
       </c>
       <c r="H8">
-        <v>17.257309</v>
+        <v>4.316324</v>
       </c>
       <c r="I8">
-        <v>0.4247352657256419</v>
+        <v>0.192142145312571</v>
       </c>
       <c r="J8">
-        <v>0.4247352657256419</v>
+        <v>0.192142145312571</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.300909333333333</v>
+        <v>0.303146</v>
       </c>
       <c r="N8">
-        <v>6.902728</v>
+        <v>0.909438</v>
       </c>
       <c r="O8">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700541</v>
       </c>
       <c r="P8">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700542</v>
       </c>
       <c r="Q8">
-        <v>13.23583444877244</v>
+        <v>0.4361587851013333</v>
       </c>
       <c r="R8">
-        <v>119.122510038952</v>
+        <v>3.925429065912</v>
       </c>
       <c r="S8">
-        <v>0.01604216452514934</v>
+        <v>0.0009881592337923626</v>
       </c>
       <c r="T8">
-        <v>0.01604216452514934</v>
+        <v>0.0009881592337923628</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.752436333333333</v>
+        <v>1.438774666666667</v>
       </c>
       <c r="H9">
-        <v>17.257309</v>
+        <v>4.316324</v>
       </c>
       <c r="I9">
-        <v>0.4247352657256419</v>
+        <v>0.192142145312571</v>
       </c>
       <c r="J9">
-        <v>0.4247352657256419</v>
+        <v>0.192142145312571</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>50.889365</v>
       </c>
       <c r="O9">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="P9">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="Q9">
-        <v>97.57927740208721</v>
+        <v>24.40610972158444</v>
       </c>
       <c r="R9">
-        <v>878.2134966187849</v>
+        <v>219.65498749426</v>
       </c>
       <c r="S9">
-        <v>0.1182685404828897</v>
+        <v>0.05529436413101265</v>
       </c>
       <c r="T9">
-        <v>0.1182685404828897</v>
+        <v>0.05529436413101265</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.752436333333333</v>
+        <v>1.438774666666667</v>
       </c>
       <c r="H10">
-        <v>17.257309</v>
+        <v>4.316324</v>
       </c>
       <c r="I10">
-        <v>0.4247352657256419</v>
+        <v>0.192142145312571</v>
       </c>
       <c r="J10">
-        <v>0.4247352657256419</v>
+        <v>0.192142145312571</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.655263</v>
+        <v>41.67881</v>
       </c>
       <c r="N10">
-        <v>124.965789</v>
+        <v>125.03643</v>
       </c>
       <c r="O10">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="P10">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="Q10">
-        <v>239.6192483557556</v>
+        <v>59.96641596481333</v>
       </c>
       <c r="R10">
-        <v>2156.573235201801</v>
+        <v>539.6977436833199</v>
       </c>
       <c r="S10">
-        <v>0.2904245607176028</v>
+        <v>0.135859621947766</v>
       </c>
       <c r="T10">
-        <v>0.2904245607176029</v>
+        <v>0.135859621947766</v>
       </c>
     </row>
   </sheetData>
